--- a/biology/Écologie/Forêts_mixtes_pannoniques/Forêts_mixtes_pannoniques.xlsx
+++ b/biology/Écologie/Forêts_mixtes_pannoniques/Forêts_mixtes_pannoniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mixtes_pannoniques</t>
+          <t>Forêts_mixtes_pannoniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts mixtes pannoniques forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des forêts de feuillus et forêts mixtes tempérées de l'écozone paléarctique. Elle occupe la dépression, cernée par les Alpes, les Carpathes et les Dinarides, appelée plaine de Pannonie en référence à la province antique, et qui comprend toute la Hongrie ainsi qu'une partie de l'Autriche, de la Slovaquie, de la République tchèque, de l'Ukraine, de la Roumanie, de la Serbie, de la Bosnie-Herzégovine, de la Croatie et de la Slovénie.
 </t>
